--- a/Homework6/Quiz/data-250.xlsx
+++ b/Homework6/Quiz/data-250.xlsx
@@ -129,172 +129,172 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -302,16 +302,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -319,44 +319,44 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>25</v>
@@ -367,10 +367,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
@@ -379,41 +379,41 @@
         <v>37</v>
       </c>
       <c r="E16" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -421,98 +421,98 @@
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>37</v>
       </c>
       <c r="D21" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
         <v>25</v>
@@ -520,84 +520,84 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>13</v>
@@ -605,118 +605,118 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>19</v>
       </c>
       <c r="D30" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1">
         <v>16</v>
@@ -724,36 +724,36 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1">
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>13</v>
       </c>
       <c r="E37" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
         <v>49</v>
       </c>
       <c r="E38" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -761,81 +761,81 @@
         <v>25</v>
       </c>
       <c r="B39" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
         <v>25</v>
       </c>
       <c r="E40" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1">
         <v>13</v>
@@ -843,50 +843,50 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E46" s="1">
         <v>25</v>
@@ -894,135 +894,135 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B48" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E51" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1">
         <v>19</v>
@@ -1030,104 +1030,104 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1">
         <v>13</v>
       </c>
       <c r="C56" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1">
         <v>25</v>
       </c>
       <c r="E56" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D57" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B59" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E59" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E60" s="1">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
@@ -1135,16 +1135,16 @@
         <v>19</v>
       </c>
       <c r="B61" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1152,169 +1152,169 @@
         <v>25</v>
       </c>
       <c r="B62" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D62" s="1">
         <v>13</v>
       </c>
       <c r="E62" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B63" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D63" s="1">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D64" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E65" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
         <v>25</v>
       </c>
       <c r="C66" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D66" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E67" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D68" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E68" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1">
         <v>13</v>
       </c>
       <c r="C69" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D69" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B70" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
         <v>31</v>
       </c>
       <c r="D70" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E70" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D71" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E71" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -1322,200 +1322,200 @@
         <v>37</v>
       </c>
       <c r="B72" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D72" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1">
         <v>16</v>
       </c>
       <c r="C73" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D73" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E73" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D74" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B75" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E75" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D76" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E76" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B77" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
         <v>13</v>
       </c>
       <c r="D77" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B79" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E79" s="1">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B80" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D80" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C81" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1">
         <v>19</v>
       </c>
       <c r="E81" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D82" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E82" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B83" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C83" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D83" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E83" s="1">
         <v>13</v>
@@ -1523,41 +1523,41 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B84" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D84" s="1">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E84" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B85" s="1">
         <v>19</v>
       </c>
       <c r="C85" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B86" s="1">
         <v>25</v>
@@ -1569,109 +1569,109 @@
         <v>13</v>
       </c>
       <c r="E86" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B87" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1">
         <v>37</v>
       </c>
       <c r="D87" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C89" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D89" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E89" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
       </c>
       <c r="C90" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B91" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C91" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D91" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E91" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B92" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C92" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E92" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -1679,64 +1679,64 @@
         <v>25</v>
       </c>
       <c r="B93" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C93" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E93" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B94" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1">
         <v>13</v>
       </c>
       <c r="D94" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E94" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1">
         <v>13</v>
       </c>
       <c r="C95" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D95" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E95" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C96" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1">
         <v>31</v>
@@ -1744,67 +1744,67 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D97" s="1">
         <v>13</v>
       </c>
       <c r="E97" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C98" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D98" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E98" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D99" s="1">
         <v>13</v>
       </c>
       <c r="E99" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C100" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D100" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1">
         <v>13</v>
@@ -1815,16 +1815,16 @@
         <v>19</v>
       </c>
       <c r="B101" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E101" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -1832,265 +1832,265 @@
         <v>25</v>
       </c>
       <c r="B102" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C102" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D102" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E102" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B103" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E103" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E104" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C105" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D105" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E105" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B106" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B107" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C107" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E107" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B108" s="1">
         <v>37</v>
       </c>
       <c r="C108" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1">
         <v>13</v>
       </c>
       <c r="C109" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D109" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E109" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B110" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C110" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D110" s="1">
         <v>37</v>
       </c>
       <c r="E110" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B111" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C111" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D111" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B112" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C112" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D112" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E112" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C113" s="1">
         <v>25</v>
       </c>
       <c r="D113" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E113" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B114" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C114" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D114" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B115" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D115" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E115" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B116" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C116" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D116" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E116" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C117" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D117" s="1">
         <v>25</v>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B118" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C118" s="1">
         <v>31</v>
       </c>
       <c r="D118" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E118" s="1">
         <v>28</v>
@@ -2121,16 +2121,16 @@
         <v>7</v>
       </c>
       <c r="B119" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C119" s="1">
         <v>25</v>
       </c>
       <c r="D119" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E119" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -2138,118 +2138,118 @@
         <v>25</v>
       </c>
       <c r="B120" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C120" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E120" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B121" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C121" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D121" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B122" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E122" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B123" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C123" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B124" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E124" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B125" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D125" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B126" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D126" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E126" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
@@ -2257,47 +2257,47 @@
         <v>13</v>
       </c>
       <c r="B127" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C127" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D127" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E127" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B128" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C128" s="1">
         <v>16</v>
       </c>
       <c r="D128" s="1">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E128" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B129" s="1">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D129" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E129" s="1">
         <v>19</v>
@@ -2305,53 +2305,53 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C130" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E130" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B131" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C131" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B132" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D132" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
@@ -2362,64 +2362,64 @@
         <v>37</v>
       </c>
       <c r="C133" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D133" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E133" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1">
         <v>25</v>
       </c>
       <c r="C134" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D134" s="1">
         <v>19</v>
       </c>
       <c r="E134" s="1">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B135" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C135" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D135" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E135" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B136" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C136" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D136" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E136" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -2427,50 +2427,50 @@
         <v>25</v>
       </c>
       <c r="B137" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C137" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D137" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E137" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C138" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D138" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E138" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B139" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C139" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E139" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
@@ -2478,30 +2478,30 @@
         <v>13</v>
       </c>
       <c r="B140" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C140" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D140" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B141" s="1">
         <v>25</v>
       </c>
       <c r="C141" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E141" s="1">
         <v>25</v>
@@ -2509,87 +2509,87 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B142" s="1">
         <v>19</v>
       </c>
       <c r="C142" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D142" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B143" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C143" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D143" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E143" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B144" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C144" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D144" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B145" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C145" s="1">
         <v>25</v>
       </c>
       <c r="D145" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E145" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B146" s="1">
         <v>13</v>
       </c>
       <c r="C146" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D146" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E146" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -2597,27 +2597,27 @@
         <v>16</v>
       </c>
       <c r="B147" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
         <v>13</v>
       </c>
       <c r="D147" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E147" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B148" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C148" s="1">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D148" s="1">
         <v>25</v>
@@ -2628,109 +2628,109 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B149" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C149" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D149" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B150" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C150" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E150" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B151" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C151" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D151" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E151" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B152" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D152" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E152" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B153" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C153" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E153" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B154" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C154" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D154" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E154" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B155" s="1">
         <v>31</v>
@@ -2739,129 +2739,129 @@
         <v>13</v>
       </c>
       <c r="D155" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E155" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B156" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C156" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D156" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E156" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B157" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C157" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E157" s="1">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B158" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C158" s="1">
         <v>13</v>
       </c>
       <c r="D158" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E158" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B159" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C159" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E159" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B160" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C160" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D160" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E160" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B161" s="1">
         <v>13</v>
       </c>
       <c r="C161" s="1">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B162" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C162" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D162" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -2869,81 +2869,81 @@
         <v>13</v>
       </c>
       <c r="B163" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C163" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D163" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E163" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D164" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E164" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B165" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C165" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D165" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E165" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B166" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C166" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D166" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E166" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B167" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C167" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E167" s="1">
         <v>7</v>
@@ -2951,16 +2951,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B168" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C168" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D168" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E168" s="1">
         <v>13</v>
@@ -2968,92 +2968,92 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B169" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C169" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D169" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E169" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B170" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C170" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D170" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E170" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B171" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C171" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D171" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E171" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B172" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C172" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D172" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E172" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B173" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C173" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D173" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E173" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B174" s="1">
         <v>49</v>
@@ -3062,75 +3062,75 @@
         <v>49</v>
       </c>
       <c r="D174" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E174" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B175" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D175" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E175" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B176" s="1">
         <v>25</v>
       </c>
       <c r="C176" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D176" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E176" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B177" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C177" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D177" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E177" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B178" s="1">
         <v>49</v>
       </c>
       <c r="C178" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D178" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E178" s="1">
         <v>13</v>
@@ -3138,126 +3138,126 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B179" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C179" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D179" s="1">
         <v>49</v>
       </c>
       <c r="E179" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C180" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D180" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E180" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B181" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C181" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E181" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B182" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C182" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D182" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E182" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C183" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D183" s="1">
         <v>25</v>
       </c>
       <c r="E183" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B184" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" s="1">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D184" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E184" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B185" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C185" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D185" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E185" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B186" s="1">
         <v>19</v>
@@ -3274,50 +3274,50 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B187" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C187" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D187" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E187" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C188" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D188" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E188" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B189" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C189" s="1">
         <v>13</v>
       </c>
       <c r="D189" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E189" s="1">
         <v>13</v>
@@ -3325,33 +3325,33 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B190" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C190" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D190" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E190" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B191" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C191" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D191" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E191" s="1">
         <v>19</v>
@@ -3359,223 +3359,223 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B192" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C192" s="1">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D192" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E192" s="1">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B193" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C193" s="1">
         <v>19</v>
       </c>
       <c r="D193" s="1">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E193" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B194" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C194" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E194" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B195" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C195" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D195" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E195" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B196" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C196" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D196" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E196" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B197" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C197" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D197" s="1">
         <v>19</v>
       </c>
       <c r="E197" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C198" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D198" s="1">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E198" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B199" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C199" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D199" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E199" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B200" s="1">
         <v>25</v>
       </c>
       <c r="C200" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D200" s="1">
         <v>25</v>
       </c>
       <c r="E200" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B201" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C201" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D201" s="1">
         <v>19</v>
       </c>
       <c r="E201" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C202" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D202" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E202" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B203" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C203" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D203" s="1">
         <v>13</v>
       </c>
       <c r="E203" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B204" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C204" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D204" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E204" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205">
@@ -3586,180 +3586,180 @@
         <v>13</v>
       </c>
       <c r="C205" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D205" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E205" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B206" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C206" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D206" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E206" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B207" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C207" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D207" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E207" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B208" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C208" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D208" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E208" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B209" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C209" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D209" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E209" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B210" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C210" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D210" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E210" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B211" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C211" s="1">
         <v>13</v>
       </c>
       <c r="D211" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E211" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B212" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C212" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D212" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E212" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B213" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C213" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D213" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E213" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B214" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C214" s="1">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D214" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E214" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B215" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C215" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D215" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E215" s="1">
         <v>13</v>
@@ -3770,118 +3770,118 @@
         <v>16</v>
       </c>
       <c r="B216" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C216" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D216" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E216" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B217" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C217" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D217" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E217" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B218" s="1">
         <v>13</v>
       </c>
       <c r="C218" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D218" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E218" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B219" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C219" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D219" s="1">
         <v>13</v>
       </c>
       <c r="E219" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B220" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C220" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D220" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E220" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C221" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D221" s="1">
         <v>19</v>
       </c>
       <c r="E221" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B222" s="1">
         <v>25</v>
       </c>
       <c r="C222" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D222" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -3889,50 +3889,50 @@
         <v>19</v>
       </c>
       <c r="B223" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C223" s="1">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D223" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E223" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B224" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C224" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D224" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E224" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B225" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C225" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D225" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E225" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226">
@@ -3940,33 +3940,33 @@
         <v>13</v>
       </c>
       <c r="B226" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C226" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D226" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B227" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C227" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D227" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E227" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228">
@@ -3974,84 +3974,84 @@
         <v>37</v>
       </c>
       <c r="B228" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C228" s="1">
         <v>19</v>
       </c>
       <c r="D228" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E228" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B229" s="1">
         <v>19</v>
       </c>
       <c r="C229" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D229" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E229" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B230" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C230" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D230" s="1">
         <v>19</v>
       </c>
       <c r="E230" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B231" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C231" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D231" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E231" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B232" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C232" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D232" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E232" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233">
@@ -4059,67 +4059,67 @@
         <v>25</v>
       </c>
       <c r="B233" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C233" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D233" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E233" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B234" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C234" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D234" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E234" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B235" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C235" s="1">
+        <v>37</v>
+      </c>
+      <c r="D235" s="1">
+        <v>19</v>
+      </c>
+      <c r="E235" s="1">
         <v>28</v>
-      </c>
-      <c r="D235" s="1">
-        <v>37</v>
-      </c>
-      <c r="E235" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B236" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C236" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D236" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E236" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4127,160 +4127,160 @@
         <v>19</v>
       </c>
       <c r="B237" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C237" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D237" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E237" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B238" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C238" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D238" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E238" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B239" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C239" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D239" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E239" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B240" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C240" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D240" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E240" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B241" s="1">
         <v>7</v>
       </c>
       <c r="C241" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D241" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E241" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B242" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C242" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D242" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E242" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B243" s="1">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C243" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D243" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E243" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B244" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C244" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D244" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E244" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B245" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C245" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D245" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E245" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B246" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C246" s="1">
         <v>19</v>
@@ -4289,89 +4289,89 @@
         <v>25</v>
       </c>
       <c r="E246" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B247" s="1">
         <v>25</v>
       </c>
       <c r="C247" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D247" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E247" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B248" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C248" s="1">
         <v>37</v>
       </c>
       <c r="D248" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E248" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B249" s="1">
         <v>13</v>
       </c>
       <c r="C249" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D249" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E249" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B250" s="1">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C250" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D250" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E250" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B251" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C251" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D251" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E251" s="1">
         <v>49</v>
